--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_11_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_11_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37677.01974058869</v>
+        <v>25722.29989127766</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19666488.4086158</v>
+        <v>19650245.32777074</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20527240.42961996</v>
+        <v>20570210.04725016</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2956584.847176584</v>
+        <v>2943472.730771875</v>
       </c>
     </row>
     <row r="11">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28.50863742316941</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>32.36675456763103</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>32.36675456763103</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>28.50863742316941</v>
       </c>
     </row>
     <row r="24">
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="V24" t="n">
-        <v>28.5086374231694</v>
+        <v>28.50863742316941</v>
       </c>
       <c r="W24" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="X24" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2481,55 +2481,55 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>28.5086374231694</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>28.5086374231694</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>32.36675456763103</v>
@@ -2560,55 +2560,55 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>28.5086374231694</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="T26" t="n">
         <v>32.36675456763103</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>32.36675456763103</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>28.50863742316941</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2684,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="U27" t="n">
+        <v>28.5086374231694</v>
+      </c>
+      <c r="V27" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="V27" t="n">
-        <v>28.50863742316941</v>
-      </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>28.50863742316941</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="G28" t="n">
         <v>32.36675456763103</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>28.5086374231694</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2800,58 +2800,58 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>28.5086374231694</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="G29" t="n">
+      <c r="T29" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="H29" t="n">
+      <c r="U29" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>28.50863742316941</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>28.5086374231694</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>32.36675456763103</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>28.50863742316941</v>
       </c>
     </row>
     <row r="31">
@@ -2949,67 +2949,67 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="C31" t="n">
+      <c r="U31" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="D31" t="n">
+      <c r="V31" t="n">
         <v>28.50863742316941</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,23 +3028,23 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>28.5086374231694</v>
+      </c>
+      <c r="E32" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="C32" t="n">
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>28.5086374231694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.5086374231694</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="E33" t="n">
         <v>32.36675456763103</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>28.50863742316941</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3186,64 +3186,64 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>28.50863742316941</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>28.5086374231694</v>
-      </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>32.36675456763103</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,61 +3274,61 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>28.5086374231694</v>
-      </c>
       <c r="T35" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>28.50863742316941</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,64 +3347,64 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="D36" t="n">
+      <c r="H36" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="E36" t="n">
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>28.5086374231694</v>
+      </c>
+      <c r="V36" t="n">
         <v>32.36675456763103</v>
-      </c>
-      <c r="F36" t="n">
-        <v>28.50863742316941</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="C37" t="n">
-        <v>28.50863742316941</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>32.36675456763103</v>
+        <v>28.5086374231694</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>28.50863742316941</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>32.36675456763103</v>
       </c>
       <c r="T38" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>28.50863742316941</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>28.50863742316941</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>32.36675456763103</v>
       </c>
       <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="U39" t="n">
-        <v>28.50863742316941</v>
-      </c>
       <c r="V39" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>28.50863742316941</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>28.50863742316941</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,23 +3739,23 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>28.50863742316941</v>
+      </c>
+      <c r="G41" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="V41" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="W41" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>28.50863742316941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>28.5086374231694</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="T42" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>28.5086374231694</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>28.50863742316941</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="W43" t="n">
-        <v>28.50863742316941</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="T44" t="n">
-        <v>60.23221703791658</v>
+        <v>28.5086374231694</v>
       </c>
       <c r="U44" t="n">
-        <v>60.23221703791658</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>60.23221703791658</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>53.05253676699692</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>60.23221703791658</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>60.23221703791658</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>60.23221703791658</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>53.05253676699692</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>28.5086374231694</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>28.5086374231694</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="G46" t="n">
-        <v>60.23221703791658</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>60.23221703791658</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>60.23221703791658</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>53.05253676699692</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5989,25 +5989,25 @@
         <v>2.589340365410483</v>
       </c>
       <c r="J23" t="n">
-        <v>2.918946973194904</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K23" t="n">
-        <v>2.918946973194904</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L23" t="n">
-        <v>13.21644680913819</v>
+        <v>12.88684020135377</v>
       </c>
       <c r="M23" t="n">
-        <v>45.25953383109292</v>
+        <v>44.9299272233085</v>
       </c>
       <c r="N23" t="n">
-        <v>77.30262085304764</v>
+        <v>76.97301424526322</v>
       </c>
       <c r="O23" t="n">
-        <v>102.2135229712919</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="P23" t="n">
-        <v>102.2135229712919</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="Q23" t="n">
         <v>102.2135229712919</v>
@@ -6016,10 +6016,10 @@
         <v>129.4670182705241</v>
       </c>
       <c r="S23" t="n">
-        <v>96.77332678806854</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="T23" t="n">
-        <v>96.77332678806854</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="U23" t="n">
         <v>96.77332678806854</v>
@@ -6034,7 +6034,7 @@
         <v>31.38594382315736</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.38594382315736</v>
+        <v>2.589340365410483</v>
       </c>
     </row>
     <row r="24">
@@ -6077,10 +6077,10 @@
         <v>32.69899211626073</v>
       </c>
       <c r="M24" t="n">
-        <v>46.69991159467671</v>
+        <v>64.74207913821546</v>
       </c>
       <c r="N24" t="n">
-        <v>78.74299861663144</v>
+        <v>96.78516616017018</v>
       </c>
       <c r="O24" t="n">
         <v>110.7860856385862</v>
@@ -6098,19 +6098,19 @@
         <v>129.4670182705241</v>
       </c>
       <c r="T24" t="n">
-        <v>129.4670182705241</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="U24" t="n">
-        <v>129.4670182705241</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="V24" t="n">
-        <v>100.6704148127773</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="W24" t="n">
-        <v>67.97672333032168</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="X24" t="n">
-        <v>35.28303184786608</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="Y24" t="n">
         <v>2.589340365410483</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.28303184786608</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="C25" t="n">
-        <v>35.28303184786608</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="D25" t="n">
         <v>2.589340365410483</v>
@@ -6153,16 +6153,16 @@
         <v>2.589340365410483</v>
       </c>
       <c r="L25" t="n">
-        <v>33.33775720465994</v>
+        <v>34.63242738736521</v>
       </c>
       <c r="M25" t="n">
-        <v>33.33775720465994</v>
+        <v>66.67551440931993</v>
       </c>
       <c r="N25" t="n">
-        <v>65.38084422661467</v>
+        <v>97.4239312485694</v>
       </c>
       <c r="O25" t="n">
-        <v>97.4239312485694</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="P25" t="n">
         <v>129.4670182705241</v>
@@ -6171,28 +6171,28 @@
         <v>129.4670182705241</v>
       </c>
       <c r="R25" t="n">
-        <v>129.4670182705241</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="S25" t="n">
-        <v>129.4670182705241</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="T25" t="n">
-        <v>129.4670182705241</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="U25" t="n">
-        <v>129.4670182705241</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="V25" t="n">
-        <v>129.4670182705241</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="W25" t="n">
-        <v>100.6704148127773</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="X25" t="n">
-        <v>67.97672333032168</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.28303184786608</v>
+        <v>2.589340365410483</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>96.77332678806854</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="C26" t="n">
-        <v>96.77332678806854</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="D26" t="n">
-        <v>67.97672333032168</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="E26" t="n">
-        <v>35.28303184786608</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="F26" t="n">
-        <v>35.28303184786608</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="G26" t="n">
         <v>2.589340365410483</v>
@@ -6229,7 +6229,7 @@
         <v>2.589340365410483</v>
       </c>
       <c r="K26" t="n">
-        <v>2.589340365410483</v>
+        <v>2.918946973194904</v>
       </c>
       <c r="L26" t="n">
         <v>13.21644680913819</v>
@@ -6253,25 +6253,25 @@
         <v>129.4670182705241</v>
       </c>
       <c r="S26" t="n">
-        <v>129.4670182705241</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="T26" t="n">
-        <v>129.4670182705241</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="U26" t="n">
-        <v>96.77332678806854</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="V26" t="n">
-        <v>96.77332678806854</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="W26" t="n">
-        <v>96.77332678806854</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="X26" t="n">
-        <v>96.77332678806854</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="Y26" t="n">
-        <v>96.77332678806854</v>
+        <v>2.589340365410483</v>
       </c>
     </row>
     <row r="27">
@@ -6317,7 +6317,7 @@
         <v>64.74207913821546</v>
       </c>
       <c r="N27" t="n">
-        <v>96.78516616017018</v>
+        <v>78.74299861663144</v>
       </c>
       <c r="O27" t="n">
         <v>110.7860856385862</v>
@@ -6332,16 +6332,16 @@
         <v>129.4670182705241</v>
       </c>
       <c r="S27" t="n">
+        <v>129.4670182705241</v>
+      </c>
+      <c r="T27" t="n">
         <v>96.77332678806854</v>
       </c>
-      <c r="T27" t="n">
-        <v>64.07963530561295</v>
-      </c>
       <c r="U27" t="n">
-        <v>31.38594382315736</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="V27" t="n">
-        <v>2.589340365410483</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="W27" t="n">
         <v>2.589340365410483</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.07963530561295</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="C28" t="n">
-        <v>64.07963530561295</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="D28" t="n">
-        <v>64.07963530561295</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="E28" t="n">
-        <v>64.07963530561295</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="F28" t="n">
         <v>35.28303184786608</v>
@@ -6384,19 +6384,19 @@
         <v>2.589340365410483</v>
       </c>
       <c r="J28" t="n">
-        <v>5.37437461473648</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K28" t="n">
-        <v>37.41746163669121</v>
+        <v>34.63242738736521</v>
       </c>
       <c r="L28" t="n">
-        <v>37.41746163669121</v>
+        <v>66.67551440931993</v>
       </c>
       <c r="M28" t="n">
-        <v>65.38084422661467</v>
+        <v>98.71860143127466</v>
       </c>
       <c r="N28" t="n">
-        <v>97.4239312485694</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="O28" t="n">
         <v>129.4670182705241</v>
@@ -6414,22 +6414,22 @@
         <v>96.77332678806854</v>
       </c>
       <c r="T28" t="n">
-        <v>64.07963530561295</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="U28" t="n">
-        <v>64.07963530561295</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="V28" t="n">
-        <v>64.07963530561295</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="W28" t="n">
-        <v>64.07963530561295</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="X28" t="n">
-        <v>64.07963530561295</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="Y28" t="n">
-        <v>64.07963530561295</v>
+        <v>67.97672333032168</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>129.4670182705241</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="C29" t="n">
-        <v>129.4670182705241</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="D29" t="n">
-        <v>129.4670182705241</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="E29" t="n">
-        <v>100.6704148127773</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="F29" t="n">
-        <v>67.97672333032168</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="G29" t="n">
-        <v>35.28303184786608</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="H29" t="n">
         <v>2.589340365410483</v>
@@ -6490,25 +6490,25 @@
         <v>129.4670182705241</v>
       </c>
       <c r="S29" t="n">
-        <v>129.4670182705241</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="T29" t="n">
-        <v>129.4670182705241</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="U29" t="n">
-        <v>129.4670182705241</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="V29" t="n">
-        <v>129.4670182705241</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="W29" t="n">
-        <v>129.4670182705241</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="X29" t="n">
-        <v>129.4670182705241</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="Y29" t="n">
-        <v>129.4670182705241</v>
+        <v>2.589340365410483</v>
       </c>
     </row>
     <row r="30">
@@ -6551,13 +6551,13 @@
         <v>32.69899211626073</v>
       </c>
       <c r="M30" t="n">
-        <v>46.69991159467671</v>
+        <v>64.74207913821546</v>
       </c>
       <c r="N30" t="n">
-        <v>78.74299861663144</v>
+        <v>96.78516616017018</v>
       </c>
       <c r="O30" t="n">
-        <v>110.7860856385862</v>
+        <v>128.8282531821249</v>
       </c>
       <c r="P30" t="n">
         <v>129.4670182705241</v>
@@ -6572,19 +6572,19 @@
         <v>129.4670182705241</v>
       </c>
       <c r="T30" t="n">
-        <v>100.6704148127773</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="U30" t="n">
-        <v>67.97672333032168</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="V30" t="n">
-        <v>35.28303184786608</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="W30" t="n">
-        <v>2.589340365410483</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="X30" t="n">
-        <v>2.589340365410483</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="Y30" t="n">
         <v>2.589340365410483</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.07963530561295</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="C31" t="n">
-        <v>31.38594382315736</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="D31" t="n">
         <v>2.589340365410483</v>
@@ -6621,22 +6621,22 @@
         <v>2.589340365410483</v>
       </c>
       <c r="J31" t="n">
-        <v>2.589340365410483</v>
+        <v>5.37437461473648</v>
       </c>
       <c r="K31" t="n">
-        <v>34.63242738736521</v>
+        <v>37.41746163669121</v>
       </c>
       <c r="L31" t="n">
-        <v>66.67551440931993</v>
+        <v>65.38084422661467</v>
       </c>
       <c r="M31" t="n">
-        <v>98.71860143127466</v>
+        <v>97.4239312485694</v>
       </c>
       <c r="N31" t="n">
-        <v>98.71860143127466</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="O31" t="n">
-        <v>98.71860143127466</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="P31" t="n">
         <v>129.4670182705241</v>
@@ -6651,22 +6651,22 @@
         <v>129.4670182705241</v>
       </c>
       <c r="T31" t="n">
-        <v>129.4670182705241</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="U31" t="n">
-        <v>129.4670182705241</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="V31" t="n">
-        <v>129.4670182705241</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="W31" t="n">
-        <v>129.4670182705241</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="X31" t="n">
-        <v>129.4670182705241</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.77332678806854</v>
+        <v>2.589340365410483</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>96.77332678806854</v>
+      </c>
+      <c r="C32" t="n">
+        <v>96.77332678806854</v>
+      </c>
+      <c r="D32" t="n">
+        <v>67.97672333032168</v>
+      </c>
+      <c r="E32" t="n">
         <v>35.28303184786608</v>
       </c>
-      <c r="C32" t="n">
-        <v>2.589340365410483</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2.589340365410483</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2.589340365410483</v>
-      </c>
       <c r="F32" t="n">
-        <v>2.589340365410483</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="G32" t="n">
         <v>2.589340365410483</v>
@@ -6706,19 +6706,19 @@
         <v>2.589340365410483</v>
       </c>
       <c r="L32" t="n">
-        <v>12.88684020135377</v>
+        <v>33.33775720465994</v>
       </c>
       <c r="M32" t="n">
-        <v>44.9299272233085</v>
+        <v>65.38084422661467</v>
       </c>
       <c r="N32" t="n">
-        <v>76.97301424526322</v>
+        <v>97.4239312485694</v>
       </c>
       <c r="O32" t="n">
-        <v>101.8839163635074</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="P32" t="n">
-        <v>101.8839163635074</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="Q32" t="n">
         <v>129.4670182705241</v>
@@ -6736,16 +6736,16 @@
         <v>129.4670182705241</v>
       </c>
       <c r="V32" t="n">
-        <v>129.4670182705241</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="W32" t="n">
-        <v>129.4670182705241</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="X32" t="n">
-        <v>100.6704148127773</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="Y32" t="n">
-        <v>67.97672333032168</v>
+        <v>96.77332678806854</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>67.97672333032168</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="C33" t="n">
-        <v>35.28303184786608</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="D33" t="n">
-        <v>35.28303184786608</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="E33" t="n">
-        <v>2.589340365410483</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="F33" t="n">
-        <v>2.589340365410483</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="G33" t="n">
         <v>2.589340365410483</v>
@@ -6785,7 +6785,7 @@
         <v>2.589340365410483</v>
       </c>
       <c r="L33" t="n">
-        <v>14.65682457272199</v>
+        <v>32.69899211626073</v>
       </c>
       <c r="M33" t="n">
         <v>46.69991159467671</v>
@@ -6812,19 +6812,19 @@
         <v>129.4670182705241</v>
       </c>
       <c r="U33" t="n">
-        <v>96.77332678806854</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="V33" t="n">
-        <v>96.77332678806854</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="W33" t="n">
-        <v>96.77332678806854</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="X33" t="n">
-        <v>96.77332678806854</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="Y33" t="n">
-        <v>96.77332678806854</v>
+        <v>129.4670182705241</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.589340365410483</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="C34" t="n">
-        <v>2.589340365410483</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="D34" t="n">
-        <v>2.589340365410483</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="E34" t="n">
-        <v>2.589340365410483</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="F34" t="n">
-        <v>2.589340365410483</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="G34" t="n">
         <v>2.589340365410483</v>
@@ -6858,16 +6858,16 @@
         <v>2.589340365410483</v>
       </c>
       <c r="J34" t="n">
-        <v>2.589340365410483</v>
+        <v>5.37437461473648</v>
       </c>
       <c r="K34" t="n">
-        <v>33.33775720465994</v>
+        <v>37.41746163669121</v>
       </c>
       <c r="L34" t="n">
-        <v>65.38084422661467</v>
+        <v>69.46054865864593</v>
       </c>
       <c r="M34" t="n">
-        <v>97.4239312485694</v>
+        <v>101.5036356806007</v>
       </c>
       <c r="N34" t="n">
         <v>129.4670182705241</v>
@@ -6888,22 +6888,22 @@
         <v>129.4670182705241</v>
       </c>
       <c r="T34" t="n">
-        <v>100.6704148127773</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="U34" t="n">
-        <v>100.6704148127773</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="V34" t="n">
-        <v>100.6704148127773</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="W34" t="n">
-        <v>100.6704148127773</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="X34" t="n">
-        <v>67.97672333032168</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.28303184786608</v>
+        <v>31.38594382315736</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.28303184786608</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="C35" t="n">
-        <v>35.28303184786608</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="D35" t="n">
-        <v>35.28303184786608</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="E35" t="n">
         <v>2.589340365410483</v>
@@ -6940,49 +6940,49 @@
         <v>2.589340365410483</v>
       </c>
       <c r="K35" t="n">
-        <v>2.918946973194904</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L35" t="n">
-        <v>13.21644680913819</v>
+        <v>34.63242738736521</v>
       </c>
       <c r="M35" t="n">
-        <v>45.25953383109292</v>
+        <v>66.67551440931993</v>
       </c>
       <c r="N35" t="n">
-        <v>77.30262085304764</v>
+        <v>98.71860143127466</v>
       </c>
       <c r="O35" t="n">
-        <v>102.2135229712919</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="P35" t="n">
-        <v>102.2135229712919</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="Q35" t="n">
-        <v>102.2135229712919</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="R35" t="n">
         <v>129.4670182705241</v>
       </c>
       <c r="S35" t="n">
-        <v>100.6704148127773</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="T35" t="n">
-        <v>67.97672333032168</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="U35" t="n">
-        <v>35.28303184786608</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="V35" t="n">
-        <v>35.28303184786608</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="W35" t="n">
-        <v>35.28303184786608</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="X35" t="n">
-        <v>35.28303184786608</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.28303184786608</v>
+        <v>2.589340365410483</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>129.4670182705241</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="C36" t="n">
-        <v>96.77332678806854</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="D36" t="n">
-        <v>64.07963530561295</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="E36" t="n">
-        <v>31.38594382315736</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="F36" t="n">
-        <v>2.589340365410483</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="G36" t="n">
-        <v>2.589340365410483</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="H36" t="n">
         <v>2.589340365410483</v>
@@ -7028,7 +7028,7 @@
         <v>64.74207913821546</v>
       </c>
       <c r="N36" t="n">
-        <v>78.74299861663144</v>
+        <v>96.78516616017018</v>
       </c>
       <c r="O36" t="n">
         <v>110.7860856385862</v>
@@ -7049,19 +7049,19 @@
         <v>129.4670182705241</v>
       </c>
       <c r="U36" t="n">
-        <v>129.4670182705241</v>
+        <v>100.6704148127773</v>
       </c>
       <c r="V36" t="n">
-        <v>129.4670182705241</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="W36" t="n">
-        <v>129.4670182705241</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="X36" t="n">
-        <v>129.4670182705241</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="Y36" t="n">
-        <v>129.4670182705241</v>
+        <v>67.97672333032168</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.38594382315736</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="C37" t="n">
-        <v>2.589340365410483</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="D37" t="n">
         <v>2.589340365410483</v>
@@ -7095,52 +7095,52 @@
         <v>2.589340365410483</v>
       </c>
       <c r="J37" t="n">
-        <v>2.589340365410483</v>
+        <v>5.37437461473648</v>
       </c>
       <c r="K37" t="n">
-        <v>34.63242738736521</v>
+        <v>37.41746163669121</v>
       </c>
       <c r="L37" t="n">
-        <v>65.38084422661467</v>
+        <v>69.46054865864593</v>
       </c>
       <c r="M37" t="n">
-        <v>65.38084422661467</v>
+        <v>101.5036356806007</v>
       </c>
       <c r="N37" t="n">
-        <v>65.38084422661467</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="O37" t="n">
-        <v>65.38084422661467</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="P37" t="n">
-        <v>97.4239312485694</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="Q37" t="n">
         <v>129.4670182705241</v>
       </c>
       <c r="R37" t="n">
-        <v>96.77332678806854</v>
+        <v>100.6704148127773</v>
       </c>
       <c r="S37" t="n">
-        <v>96.77332678806854</v>
+        <v>100.6704148127773</v>
       </c>
       <c r="T37" t="n">
-        <v>64.07963530561295</v>
+        <v>100.6704148127773</v>
       </c>
       <c r="U37" t="n">
-        <v>64.07963530561295</v>
+        <v>100.6704148127773</v>
       </c>
       <c r="V37" t="n">
-        <v>31.38594382315736</v>
+        <v>100.6704148127773</v>
       </c>
       <c r="W37" t="n">
-        <v>31.38594382315736</v>
+        <v>100.6704148127773</v>
       </c>
       <c r="X37" t="n">
-        <v>31.38594382315736</v>
+        <v>100.6704148127773</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.38594382315736</v>
+        <v>100.6704148127773</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.589340365410483</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="C38" t="n">
-        <v>2.589340365410483</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="D38" t="n">
-        <v>2.589340365410483</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="E38" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="F38" t="n">
-        <v>2.589340365410483</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="G38" t="n">
-        <v>2.589340365410483</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="H38" t="n">
         <v>2.589340365410483</v>
@@ -7174,19 +7174,19 @@
         <v>2.589340365410483</v>
       </c>
       <c r="J38" t="n">
-        <v>30.17244227242717</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K38" t="n">
-        <v>30.17244227242717</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L38" t="n">
-        <v>40.46994210837045</v>
+        <v>33.33775720465994</v>
       </c>
       <c r="M38" t="n">
-        <v>72.51302913032518</v>
+        <v>65.38084422661467</v>
       </c>
       <c r="N38" t="n">
-        <v>104.5561161522799</v>
+        <v>97.4239312485694</v>
       </c>
       <c r="O38" t="n">
         <v>129.4670182705241</v>
@@ -7204,22 +7204,22 @@
         <v>96.77332678806854</v>
       </c>
       <c r="T38" t="n">
-        <v>64.07963530561295</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="U38" t="n">
-        <v>31.38594382315736</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="V38" t="n">
-        <v>2.589340365410483</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="W38" t="n">
-        <v>2.589340365410483</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="X38" t="n">
-        <v>2.589340365410483</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.589340365410483</v>
+        <v>96.77332678806854</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="C39" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="D39" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="E39" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="F39" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="G39" t="n">
-        <v>2.589340365410483</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="H39" t="n">
         <v>2.589340365410483</v>
@@ -7283,22 +7283,22 @@
         <v>96.77332678806854</v>
       </c>
       <c r="T39" t="n">
+        <v>96.77332678806854</v>
+      </c>
+      <c r="U39" t="n">
         <v>64.07963530561295</v>
       </c>
-      <c r="U39" t="n">
-        <v>35.28303184786608</v>
-      </c>
       <c r="V39" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="W39" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="X39" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
     </row>
     <row r="40">
@@ -7323,10 +7323,10 @@
         <v>31.38594382315736</v>
       </c>
       <c r="G40" t="n">
-        <v>31.38594382315736</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="H40" t="n">
-        <v>31.38594382315736</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="I40" t="n">
         <v>2.589340365410483</v>
@@ -7338,40 +7338,40 @@
         <v>5.37437461473648</v>
       </c>
       <c r="L40" t="n">
-        <v>5.37437461473648</v>
+        <v>37.41746163669121</v>
       </c>
       <c r="M40" t="n">
-        <v>5.37437461473648</v>
+        <v>37.41746163669121</v>
       </c>
       <c r="N40" t="n">
-        <v>33.33775720465994</v>
+        <v>65.38084422661467</v>
       </c>
       <c r="O40" t="n">
-        <v>65.38084422661467</v>
+        <v>97.4239312485694</v>
       </c>
       <c r="P40" t="n">
-        <v>97.4239312485694</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="Q40" t="n">
         <v>129.4670182705241</v>
       </c>
       <c r="R40" t="n">
+        <v>129.4670182705241</v>
+      </c>
+      <c r="S40" t="n">
         <v>96.77332678806854</v>
-      </c>
-      <c r="S40" t="n">
-        <v>64.07963530561295</v>
       </c>
       <c r="T40" t="n">
         <v>64.07963530561295</v>
       </c>
       <c r="U40" t="n">
-        <v>64.07963530561295</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="V40" t="n">
-        <v>64.07963530561295</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="W40" t="n">
-        <v>64.07963530561295</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="X40" t="n">
         <v>31.38594382315736</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="C41" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="D41" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="E41" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="F41" t="n">
-        <v>2.589340365410483</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="G41" t="n">
         <v>2.589340365410483</v>
@@ -7411,28 +7411,28 @@
         <v>2.589340365410483</v>
       </c>
       <c r="J41" t="n">
-        <v>2.918946973194904</v>
+        <v>30.17244227242717</v>
       </c>
       <c r="K41" t="n">
-        <v>2.918946973194904</v>
+        <v>30.17244227242717</v>
       </c>
       <c r="L41" t="n">
-        <v>13.21644680913819</v>
+        <v>40.46994210837045</v>
       </c>
       <c r="M41" t="n">
-        <v>45.25953383109292</v>
+        <v>72.51302913032518</v>
       </c>
       <c r="N41" t="n">
-        <v>77.30262085304764</v>
+        <v>104.5561161522799</v>
       </c>
       <c r="O41" t="n">
-        <v>102.2135229712919</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="P41" t="n">
-        <v>102.2135229712919</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="Q41" t="n">
-        <v>102.2135229712919</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="R41" t="n">
         <v>129.4670182705241</v>
@@ -7444,10 +7444,10 @@
         <v>129.4670182705241</v>
       </c>
       <c r="U41" t="n">
-        <v>129.4670182705241</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="V41" t="n">
-        <v>96.77332678806854</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="W41" t="n">
         <v>64.07963530561295</v>
@@ -7456,7 +7456,7 @@
         <v>64.07963530561295</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.28303184786608</v>
+        <v>64.07963530561295</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.589340365410483</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="C42" t="n">
-        <v>2.589340365410483</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="D42" t="n">
-        <v>2.589340365410483</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="E42" t="n">
-        <v>2.589340365410483</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="F42" t="n">
-        <v>2.589340365410483</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="G42" t="n">
         <v>2.589340365410483</v>
@@ -7499,7 +7499,7 @@
         <v>32.69899211626073</v>
       </c>
       <c r="M42" t="n">
-        <v>64.74207913821546</v>
+        <v>46.69991159467671</v>
       </c>
       <c r="N42" t="n">
         <v>78.74299861663144</v>
@@ -7517,7 +7517,7 @@
         <v>129.4670182705241</v>
       </c>
       <c r="S42" t="n">
-        <v>129.4670182705241</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="T42" t="n">
         <v>96.77332678806854</v>
@@ -7532,10 +7532,10 @@
         <v>96.77332678806854</v>
       </c>
       <c r="X42" t="n">
-        <v>67.97672333032168</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="Y42" t="n">
-        <v>35.28303184786608</v>
+        <v>96.77332678806854</v>
       </c>
     </row>
     <row r="43">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.589340365410483</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="C43" t="n">
         <v>2.589340365410483</v>
@@ -7575,16 +7575,16 @@
         <v>34.63242738736521</v>
       </c>
       <c r="L43" t="n">
-        <v>66.67551440931993</v>
+        <v>34.63242738736521</v>
       </c>
       <c r="M43" t="n">
         <v>66.67551440931993</v>
       </c>
       <c r="N43" t="n">
-        <v>66.67551440931993</v>
+        <v>97.4239312485694</v>
       </c>
       <c r="O43" t="n">
-        <v>66.67551440931993</v>
+        <v>97.4239312485694</v>
       </c>
       <c r="P43" t="n">
         <v>97.4239312485694</v>
@@ -7593,28 +7593,28 @@
         <v>129.4670182705241</v>
       </c>
       <c r="R43" t="n">
+        <v>129.4670182705241</v>
+      </c>
+      <c r="S43" t="n">
+        <v>129.4670182705241</v>
+      </c>
+      <c r="T43" t="n">
         <v>96.77332678806854</v>
       </c>
-      <c r="S43" t="n">
+      <c r="U43" t="n">
         <v>96.77332678806854</v>
-      </c>
-      <c r="T43" t="n">
-        <v>64.07963530561295</v>
-      </c>
-      <c r="U43" t="n">
-        <v>64.07963530561295</v>
       </c>
       <c r="V43" t="n">
         <v>64.07963530561295</v>
       </c>
       <c r="W43" t="n">
-        <v>35.28303184786608</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="X43" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.589340365410483</v>
+        <v>64.07963530561295</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.818577363033326</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="C44" t="n">
-        <v>4.818577363033326</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="D44" t="n">
-        <v>4.818577363033326</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="E44" t="n">
-        <v>4.818577363033326</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="F44" t="n">
-        <v>4.818577363033326</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="G44" t="n">
-        <v>4.818577363033326</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="H44" t="n">
-        <v>4.818577363033326</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="I44" t="n">
-        <v>4.818577363033326</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="J44" t="n">
-        <v>4.818577363033326</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K44" t="n">
-        <v>13.76932287133957</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L44" t="n">
-        <v>48.85965936111268</v>
+        <v>12.88684020135377</v>
       </c>
       <c r="M44" t="n">
-        <v>108.48955422865</v>
+        <v>44.9299272233085</v>
       </c>
       <c r="N44" t="n">
-        <v>168.1194490961874</v>
+        <v>76.97301424526322</v>
       </c>
       <c r="O44" t="n">
-        <v>219.5012987724245</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="P44" t="n">
-        <v>240.9288681516663</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.9288681516663</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="R44" t="n">
-        <v>240.9288681516663</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="S44" t="n">
-        <v>240.9288681516663</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="T44" t="n">
-        <v>180.0882448810435</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="U44" t="n">
-        <v>119.2476216104207</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="V44" t="n">
-        <v>58.40699833979789</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="W44" t="n">
-        <v>4.818577363033326</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="X44" t="n">
-        <v>4.818577363033326</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.818577363033326</v>
+        <v>67.97672333032168</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>65.65920063365614</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="C45" t="n">
-        <v>4.818577363033326</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="D45" t="n">
-        <v>4.818577363033326</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="E45" t="n">
-        <v>4.818577363033326</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="F45" t="n">
-        <v>4.818577363033326</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="G45" t="n">
-        <v>4.818577363033326</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="H45" t="n">
-        <v>4.818577363033326</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="I45" t="n">
-        <v>4.818577363033326</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="J45" t="n">
-        <v>4.818577363033326</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K45" t="n">
-        <v>18.39246347380764</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L45" t="n">
-        <v>66.75388022218301</v>
+        <v>32.69899211626073</v>
       </c>
       <c r="M45" t="n">
-        <v>126.3837750897204</v>
+        <v>46.69991159467671</v>
       </c>
       <c r="N45" t="n">
-        <v>147.2627200539645</v>
+        <v>78.74299861663144</v>
       </c>
       <c r="O45" t="n">
-        <v>206.1961156134109</v>
+        <v>110.7860856385862</v>
       </c>
       <c r="P45" t="n">
-        <v>240.9288681516663</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="Q45" t="n">
-        <v>240.9288681516663</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="R45" t="n">
-        <v>240.9288681516663</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="S45" t="n">
-        <v>240.9288681516663</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="T45" t="n">
-        <v>180.0882448810435</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="U45" t="n">
-        <v>126.499823904279</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="V45" t="n">
-        <v>126.499823904279</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="W45" t="n">
-        <v>126.499823904279</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="X45" t="n">
-        <v>126.499823904279</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="Y45" t="n">
-        <v>126.499823904279</v>
+        <v>35.28303184786608</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.65920063365614</v>
+        <v>100.6704148127773</v>
       </c>
       <c r="C46" t="n">
-        <v>65.65920063365614</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="D46" t="n">
-        <v>65.65920063365614</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="E46" t="n">
-        <v>65.65920063365614</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="F46" t="n">
-        <v>65.65920063365614</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="G46" t="n">
-        <v>4.818577363033326</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="H46" t="n">
-        <v>4.818577363033326</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="I46" t="n">
-        <v>4.818577363033326</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="J46" t="n">
-        <v>12.58607289608122</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K46" t="n">
-        <v>72.21596776361864</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L46" t="n">
-        <v>73.7834199892047</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="M46" t="n">
-        <v>73.7834199892047</v>
+        <v>33.33775720465994</v>
       </c>
       <c r="N46" t="n">
-        <v>133.4133148567421</v>
+        <v>33.33775720465994</v>
       </c>
       <c r="O46" t="n">
-        <v>133.4133148567421</v>
+        <v>65.38084422661467</v>
       </c>
       <c r="P46" t="n">
-        <v>193.0432097242795</v>
+        <v>97.4239312485694</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.9288681516663</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="R46" t="n">
-        <v>240.9288681516663</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="S46" t="n">
-        <v>240.9288681516663</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="T46" t="n">
-        <v>240.9288681516663</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="U46" t="n">
-        <v>180.0882448810435</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="V46" t="n">
-        <v>180.0882448810435</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="W46" t="n">
-        <v>119.2476216104207</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="X46" t="n">
-        <v>65.65920063365614</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.65920063365614</v>
+        <v>129.4670182705241</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>65.01946517481471</v>
       </c>
       <c r="L2" t="n">
-        <v>56.4339664610682</v>
+        <v>56.43396646106821</v>
       </c>
       <c r="M2" t="n">
-        <v>42.00059636060509</v>
+        <v>42.0005963606051</v>
       </c>
       <c r="N2" t="n">
         <v>39.65094179247474</v>
@@ -7996,7 +7996,7 @@
         <v>46.19673452270656</v>
       </c>
       <c r="P2" t="n">
-        <v>62.08001639703511</v>
+        <v>62.08001639703512</v>
       </c>
       <c r="Q2" t="n">
         <v>78.24807792626756</v>
@@ -8057,16 +8057,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>51.43211845760855</v>
+        <v>51.43211845760856</v>
       </c>
       <c r="K3" t="n">
-        <v>36.59190862205906</v>
+        <v>36.59190862205907</v>
       </c>
       <c r="L3" t="n">
         <v>18.78854721703357</v>
       </c>
       <c r="M3" t="n">
-        <v>9.216293543178466</v>
+        <v>9.21629354317848</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>14.58875442338393</v>
       </c>
       <c r="P3" t="n">
-        <v>24.40218892352032</v>
+        <v>24.40218892352033</v>
       </c>
       <c r="Q3" t="n">
         <v>49.08744703089221</v>
@@ -8142,7 +8142,7 @@
         <v>51.88619524178843</v>
       </c>
       <c r="L4" t="n">
-        <v>46.76134641422896</v>
+        <v>46.76134641422897</v>
       </c>
       <c r="M4" t="n">
         <v>47.16400664275908</v>
@@ -8151,10 +8151,10 @@
         <v>40.88357032611205</v>
       </c>
       <c r="O4" t="n">
-        <v>51.0994709558466</v>
+        <v>51.09947095584661</v>
       </c>
       <c r="P4" t="n">
-        <v>56.23986070246484</v>
+        <v>56.23986070246485</v>
       </c>
       <c r="Q4" t="n">
         <v>75.43459031707346</v>
@@ -8929,7 +8929,7 @@
         <v>45.30876821055361</v>
       </c>
       <c r="K14" t="n">
-        <v>34.59292991576665</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L14" t="n">
         <v>18.68715897392866</v>
@@ -8947,7 +8947,7 @@
         <v>27.68343765293218</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.41767977011629</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R14" t="n">
         <v>86.56775819371971</v>
@@ -9096,13 +9096,13 @@
         <v>30.34506479299962</v>
       </c>
       <c r="N16" t="n">
-        <v>24.46454532135643</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O16" t="n">
         <v>35.9338438677494</v>
       </c>
       <c r="P16" t="n">
-        <v>43.26304678555945</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q16" t="n">
         <v>66.45011700163332</v>
@@ -9166,7 +9166,7 @@
         <v>45.30876821055361</v>
       </c>
       <c r="K17" t="n">
-        <v>34.59292991576665</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L17" t="n">
         <v>18.68715897392866</v>
@@ -9184,7 +9184,7 @@
         <v>27.68343765293218</v>
       </c>
       <c r="Q17" t="n">
-        <v>52.41767977011629</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R17" t="n">
         <v>86.56775819371971</v>
@@ -9333,13 +9333,13 @@
         <v>30.34506479299962</v>
       </c>
       <c r="N19" t="n">
-        <v>24.46454532135643</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O19" t="n">
         <v>35.9338438677494</v>
       </c>
       <c r="P19" t="n">
-        <v>43.26304678555945</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q19" t="n">
         <v>66.45011700163332</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.99691643668454</v>
+        <v>29.66398046922554</v>
       </c>
       <c r="K23" t="n">
         <v>11.14544858436605</v>
@@ -9658,7 +9658,7 @@
         <v>1.176537307564445</v>
       </c>
       <c r="Q23" t="n">
-        <v>32.51210151769618</v>
+        <v>32.8450374851552</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9801,19 +9801,19 @@
         <v>29.81410061865641</v>
       </c>
       <c r="L25" t="n">
-        <v>49.57567136116104</v>
+        <v>50.88341902045929</v>
       </c>
       <c r="M25" t="n">
-        <v>17.38394971109511</v>
+        <v>49.75070427872615</v>
       </c>
       <c r="N25" t="n">
-        <v>44.17837115421401</v>
+        <v>42.87062349491578</v>
       </c>
       <c r="O25" t="n">
         <v>56.61357081295675</v>
       </c>
       <c r="P25" t="n">
-        <v>65.62953022579632</v>
+        <v>33.26277565816529</v>
       </c>
       <c r="Q25" t="n">
         <v>59.526447627428</v>
@@ -9877,10 +9877,10 @@
         <v>29.66398046922554</v>
       </c>
       <c r="K26" t="n">
-        <v>11.14544858436605</v>
+        <v>11.47838455182506</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3329359674590133</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10032,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>52.4725364634484</v>
+        <v>49.6593705550383</v>
       </c>
       <c r="K28" t="n">
         <v>62.18085518628745</v>
       </c>
       <c r="L28" t="n">
-        <v>18.51666445282825</v>
+        <v>50.88341902045929</v>
       </c>
       <c r="M28" t="n">
-        <v>45.6297907110178</v>
+        <v>49.75070427872615</v>
       </c>
       <c r="N28" t="n">
-        <v>44.17837115421401</v>
+        <v>42.87062349491578</v>
       </c>
       <c r="O28" t="n">
-        <v>56.61357081295675</v>
+        <v>24.24681624532572</v>
       </c>
       <c r="P28" t="n">
         <v>33.26277565816529</v>
@@ -10269,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>49.6593705550383</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
         <v>62.18085518628745</v>
       </c>
       <c r="L31" t="n">
-        <v>50.88341902045929</v>
+        <v>46.76250545275094</v>
       </c>
       <c r="M31" t="n">
         <v>49.75070427872615</v>
       </c>
       <c r="N31" t="n">
-        <v>11.81161658658297</v>
+        <v>44.17837115421401</v>
       </c>
       <c r="O31" t="n">
         <v>24.24681624532572</v>
       </c>
       <c r="P31" t="n">
-        <v>64.32178256649809</v>
+        <v>33.26277565816529</v>
       </c>
       <c r="Q31" t="n">
         <v>59.526447627428</v>
@@ -10354,7 +10354,7 @@
         <v>11.14544858436605</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>20.65749192253149</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>7.204227175465149</v>
       </c>
       <c r="P32" t="n">
         <v>1.176537307564445</v>
       </c>
       <c r="Q32" t="n">
-        <v>60.37382061569284</v>
+        <v>32.51210151769618</v>
       </c>
       <c r="R32" t="n">
         <v>74.98883187131496</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>49.6593705550383</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K34" t="n">
-        <v>60.8731075269892</v>
+        <v>62.18085518628745</v>
       </c>
       <c r="L34" t="n">
         <v>50.88341902045929</v>
@@ -10518,7 +10518,7 @@
         <v>49.75070427872615</v>
       </c>
       <c r="N34" t="n">
-        <v>44.17837115421401</v>
+        <v>40.05745758650566</v>
       </c>
       <c r="O34" t="n">
         <v>24.24681624532572</v>
@@ -10588,10 +10588,10 @@
         <v>29.66398046922554</v>
       </c>
       <c r="K35" t="n">
-        <v>11.47838455182506</v>
+        <v>11.14544858436605</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>21.96523958182974</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>5.896479516166917</v>
       </c>
       <c r="P35" t="n">
         <v>1.176537307564445</v>
@@ -10609,7 +10609,7 @@
         <v>32.51210151769618</v>
       </c>
       <c r="R35" t="n">
-        <v>102.5176150018526</v>
+        <v>74.98883187131496</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>49.6593705550383</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
         <v>62.18085518628745</v>
       </c>
       <c r="L37" t="n">
-        <v>49.57567136116104</v>
+        <v>50.88341902045929</v>
       </c>
       <c r="M37" t="n">
-        <v>17.38394971109511</v>
+        <v>49.75070427872615</v>
       </c>
       <c r="N37" t="n">
-        <v>11.81161658658297</v>
+        <v>40.05745758650566</v>
       </c>
       <c r="O37" t="n">
         <v>24.24681624532572</v>
       </c>
       <c r="P37" t="n">
-        <v>65.62953022579632</v>
+        <v>33.26277565816529</v>
       </c>
       <c r="Q37" t="n">
-        <v>91.89320219505903</v>
+        <v>59.526447627428</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>57.52569956722219</v>
+        <v>29.66398046922554</v>
       </c>
       <c r="K38" t="n">
         <v>11.14544858436605</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>20.65749192253149</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>7.204227175465149</v>
       </c>
       <c r="P38" t="n">
         <v>1.176537307564445</v>
@@ -10986,7 +10986,7 @@
         <v>29.81410061865641</v>
       </c>
       <c r="L40" t="n">
-        <v>18.51666445282825</v>
+        <v>50.88341902045929</v>
       </c>
       <c r="M40" t="n">
         <v>17.38394971109511</v>
@@ -11001,7 +11001,7 @@
         <v>65.62953022579632</v>
       </c>
       <c r="Q40" t="n">
-        <v>91.89320219505905</v>
+        <v>59.526447627428</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.99691643668455</v>
+        <v>57.52569956722219</v>
       </c>
       <c r="K41" t="n">
         <v>11.14544858436605</v>
@@ -11083,7 +11083,7 @@
         <v>32.51210151769618</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>74.98883187131496</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11223,22 +11223,22 @@
         <v>62.18085518628745</v>
       </c>
       <c r="L43" t="n">
-        <v>50.88341902045929</v>
+        <v>18.51666445282825</v>
       </c>
       <c r="M43" t="n">
-        <v>17.38394971109511</v>
+        <v>49.75070427872615</v>
       </c>
       <c r="N43" t="n">
-        <v>11.81161658658297</v>
+        <v>42.87062349491578</v>
       </c>
       <c r="O43" t="n">
         <v>24.24681624532572</v>
       </c>
       <c r="P43" t="n">
-        <v>64.32178256649809</v>
+        <v>33.26277565816529</v>
       </c>
       <c r="Q43" t="n">
-        <v>91.89320219505903</v>
+        <v>91.89320219505905</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>16.19493633782719</v>
+        <v>29.66398046922554</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>11.14544858436605</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1.176537307564445</v>
       </c>
       <c r="Q44" t="n">
-        <v>15.37482126974504</v>
+        <v>60.37382061569285</v>
       </c>
       <c r="R44" t="n">
-        <v>65.02020383945646</v>
+        <v>74.98883187131496</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>22.00074517885898</v>
+        <v>30.02281559133009</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.322780213904707</v>
+        <v>20.16138275253149</v>
       </c>
       <c r="R45" t="n">
-        <v>54.9701609683068</v>
+        <v>60.2419881239143</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>49.6593705550383</v>
       </c>
       <c r="K46" t="n">
-        <v>81.77589902951993</v>
+        <v>29.81410061865641</v>
       </c>
       <c r="L46" t="n">
-        <v>9.516661092023973</v>
+        <v>18.51666445282825</v>
       </c>
       <c r="M46" t="n">
-        <v>6.225355940650957</v>
+        <v>48.4429566194279</v>
       </c>
       <c r="N46" t="n">
-        <v>61.15056627323315</v>
+        <v>11.81161658658297</v>
       </c>
       <c r="O46" t="n">
-        <v>14.18512072001889</v>
+        <v>56.61357081295675</v>
       </c>
       <c r="P46" t="n">
-        <v>84.88547396256749</v>
+        <v>65.62953022579632</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>91.89320219505905</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22646,7 +22646,7 @@
         <v>84.24424724889813</v>
       </c>
       <c r="I3" t="n">
-        <v>37.59182348086897</v>
+        <v>37.59182348086898</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>83.00822261809724</v>
       </c>
       <c r="I15" t="n">
-        <v>33.18546864354515</v>
+        <v>33.18546864354516</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>83.00822261809724</v>
       </c>
       <c r="I18" t="n">
-        <v>33.18546864354515</v>
+        <v>33.18546864354516</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>367.9811608311135</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>108.8505498766633</v>
+        <v>141.2173044442944</v>
       </c>
       <c r="T23" t="n">
         <v>216.7260371756751</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1122405931648</v>
+        <v>220.7454860255338</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24274,7 +24274,7 @@
         <v>353.1913244486427</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>364.0171645654355</v>
       </c>
     </row>
     <row r="24">
@@ -24338,10 +24338,10 @@
         <v>123.2751796797921</v>
       </c>
       <c r="T24" t="n">
-        <v>172.9775181442987</v>
+        <v>140.6107635766677</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9260082612874</v>
+        <v>175.5592536936564</v>
       </c>
       <c r="V24" t="n">
         <v>191.8059641894742</v>
@@ -24350,10 +24350,10 @@
         <v>195.449318840415</v>
       </c>
       <c r="X24" t="n">
-        <v>155.0472523058574</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>145.1543201876168</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -24369,7 +24369,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>121.7100273988794</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.7461592834061</v>
+        <v>69.37940471577508</v>
       </c>
       <c r="S25" t="n">
         <v>192.6812454004474</v>
       </c>
       <c r="T25" t="n">
-        <v>231.3743086467557</v>
+        <v>202.8656712235863</v>
       </c>
       <c r="U25" t="n">
         <v>282.5590308277518</v>
@@ -24426,7 +24426,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>251.9884606249647</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>199.3727644272157</v>
@@ -24448,16 +24448,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>353.0780800723296</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>366.1909350669898</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>375.6273524319637</v>
+        <v>407.9941069995947</v>
       </c>
       <c r="H26" t="n">
         <v>310.221829050409</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>141.2173044442944</v>
+        <v>108.8505498766633</v>
       </c>
       <c r="T26" t="n">
-        <v>216.7260371756751</v>
+        <v>184.3592826080441</v>
       </c>
       <c r="U26" t="n">
         <v>220.7454860255338</v>
@@ -24505,7 +24505,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>338.780407258226</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -24572,19 +24572,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>90.9084251121611</v>
+        <v>123.2751796797921</v>
       </c>
       <c r="T27" t="n">
         <v>140.6107635766677</v>
       </c>
       <c r="U27" t="n">
-        <v>175.5592536936564</v>
+        <v>179.417370838118</v>
       </c>
       <c r="V27" t="n">
-        <v>191.8059641894742</v>
+        <v>187.9478470450126</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>195.449318840415</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
@@ -24612,7 +24612,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>127.2440380159874</v>
+        <v>123.3859208715257</v>
       </c>
       <c r="G28" t="n">
         <v>133.7395868932026</v>
@@ -24654,10 +24654,10 @@
         <v>192.6812454004474</v>
       </c>
       <c r="T28" t="n">
-        <v>199.0075540791247</v>
+        <v>231.3743086467557</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5590308277518</v>
+        <v>254.0503934045824</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24688,16 +24688,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>370.0490522114515</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>380.358739517691</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>375.6273524319637</v>
+        <v>407.9941069995947</v>
       </c>
       <c r="H29" t="n">
-        <v>277.855074482778</v>
+        <v>310.221829050409</v>
       </c>
       <c r="I29" t="n">
         <v>96.97399528284214</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>141.2173044442944</v>
+        <v>108.8505498766633</v>
       </c>
       <c r="T29" t="n">
-        <v>216.7260371756751</v>
+        <v>184.3592826080441</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1122405931648</v>
+        <v>220.7454860255338</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>310.1771037803474</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -24812,7 +24812,7 @@
         <v>123.2751796797921</v>
       </c>
       <c r="T30" t="n">
-        <v>144.4688807211293</v>
+        <v>172.9775181442987</v>
       </c>
       <c r="U30" t="n">
         <v>175.5592536936564</v>
@@ -24827,7 +24827,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>149.0124373320784</v>
       </c>
     </row>
     <row r="31">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>150.9891839367572</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>136.1363121870396</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>125.568144543341</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24891,13 +24891,13 @@
         <v>192.6812454004474</v>
       </c>
       <c r="T31" t="n">
-        <v>231.3743086467557</v>
+        <v>199.0075540791247</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5590308277518</v>
+        <v>250.1922762601207</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>234.8109143042146</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>364.1230436866518</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>356.8769919144677</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>353.0780800723296</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>366.1909350669898</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>407.9941069995947</v>
+        <v>375.6273524319637</v>
       </c>
       <c r="H32" t="n">
         <v>310.221829050409</v>
@@ -24976,16 +24976,16 @@
         <v>253.1122405931648</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>306.3189866358857</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>357.0494415931043</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>360.1590474209738</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>121.7697336733823</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
         <v>116.7809335678777</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>96.42132313710343</v>
       </c>
       <c r="E33" t="n">
         <v>102.7152714125901</v>
@@ -25010,7 +25010,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>118.3043646206254</v>
+        <v>89.79572719745599</v>
       </c>
       <c r="H33" t="n">
         <v>82.05570981277423</v>
@@ -25052,7 +25052,7 @@
         <v>172.9775181442987</v>
       </c>
       <c r="U33" t="n">
-        <v>175.5592536936564</v>
+        <v>207.9260082612874</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>150.9891839367572</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25089,7 +25089,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.1063414608336</v>
+        <v>137.5977040376642</v>
       </c>
       <c r="H34" t="n">
         <v>149.7879644472162</v>
@@ -25128,10 +25128,10 @@
         <v>192.6812454004474</v>
       </c>
       <c r="T34" t="n">
-        <v>202.8656712235863</v>
+        <v>199.0075540791247</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5590308277518</v>
+        <v>250.1922762601207</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25143,7 +25143,7 @@
         <v>199.3727644272157</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.514186003892</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>366.1909350669898</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>112.708667021125</v>
+        <v>108.8505498766633</v>
       </c>
       <c r="T35" t="n">
-        <v>184.3592826080441</v>
+        <v>216.7260371756751</v>
       </c>
       <c r="U35" t="n">
         <v>220.7454860255338</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>306.3189866358857</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>338.780407258226</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -25235,22 +25235,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>116.7809335678777</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>96.42132313710343</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>102.7152714125901</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>94.67885063253011</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>118.3043646206254</v>
+        <v>85.93761005299436</v>
       </c>
       <c r="H36" t="n">
-        <v>82.05570981277423</v>
+        <v>49.68895524514319</v>
       </c>
       <c r="I36" t="n">
         <v>29.78981672629463</v>
@@ -25289,10 +25289,10 @@
         <v>172.9775181442987</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9260082612874</v>
+        <v>179.417370838118</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>187.9478470450126</v>
       </c>
       <c r="W36" t="n">
         <v>227.816073408046</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>150.9891839367572</v>
       </c>
       <c r="C37" t="n">
-        <v>139.9944293315013</v>
+        <v>136.1363121870396</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>121.7100273988794</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>69.37940471577508</v>
+        <v>73.23752186023671</v>
       </c>
       <c r="S37" t="n">
         <v>192.6812454004474</v>
       </c>
       <c r="T37" t="n">
-        <v>199.0075540791247</v>
+        <v>231.3743086467557</v>
       </c>
       <c r="U37" t="n">
         <v>282.5590308277518</v>
       </c>
       <c r="V37" t="n">
-        <v>230.952797159753</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
@@ -25399,16 +25399,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>366.1909350669898</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>384.2168566621526</v>
       </c>
       <c r="G38" t="n">
         <v>407.9941069995947</v>
       </c>
       <c r="H38" t="n">
-        <v>310.221829050409</v>
+        <v>277.855074482778</v>
       </c>
       <c r="I38" t="n">
         <v>96.97399528284214</v>
@@ -25444,13 +25444,13 @@
         <v>108.8505498766633</v>
       </c>
       <c r="T38" t="n">
-        <v>184.3592826080441</v>
+        <v>216.7260371756751</v>
       </c>
       <c r="U38" t="n">
-        <v>220.7454860255338</v>
+        <v>253.1122405931648</v>
       </c>
       <c r="V38" t="n">
-        <v>310.1771037803474</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -25484,10 +25484,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>118.3043646206254</v>
+        <v>89.79572719745599</v>
       </c>
       <c r="H39" t="n">
-        <v>82.05570981277423</v>
+        <v>49.68895524514319</v>
       </c>
       <c r="I39" t="n">
         <v>29.78981672629463</v>
@@ -25523,13 +25523,13 @@
         <v>90.9084251121611</v>
       </c>
       <c r="T39" t="n">
-        <v>140.6107635766677</v>
+        <v>172.9775181442987</v>
       </c>
       <c r="U39" t="n">
-        <v>179.417370838118</v>
+        <v>175.5592536936564</v>
       </c>
       <c r="V39" t="n">
-        <v>187.9478470450126</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
         <v>227.816073408046</v>
@@ -25563,13 +25563,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.1063414608336</v>
+        <v>137.5977040376642</v>
       </c>
       <c r="H40" t="n">
         <v>149.7879644472162</v>
       </c>
       <c r="I40" t="n">
-        <v>89.26585598097716</v>
+        <v>117.7744934041466</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>69.37940471577508</v>
+        <v>101.7461592834061</v>
       </c>
       <c r="S40" t="n">
         <v>160.3144908328163</v>
       </c>
       <c r="T40" t="n">
-        <v>231.3743086467557</v>
+        <v>199.0075540791247</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5590308277518</v>
+        <v>250.1922762601207</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25614,7 +25614,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>199.3727644272157</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>364.1230436866518</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -25639,10 +25639,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>384.2168566621526</v>
       </c>
       <c r="G41" t="n">
-        <v>407.9941069995947</v>
+        <v>375.6273524319637</v>
       </c>
       <c r="H41" t="n">
         <v>310.221829050409</v>
@@ -25684,19 +25684,19 @@
         <v>216.7260371756751</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1122405931648</v>
+        <v>220.7454860255338</v>
       </c>
       <c r="V41" t="n">
         <v>306.3189866358857</v>
       </c>
       <c r="W41" t="n">
-        <v>334.9222901137643</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>364.0171645654355</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>117.9116165289207</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>100.2794402815651</v>
       </c>
       <c r="E42" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>90.82073348806848</v>
       </c>
       <c r="G42" t="n">
-        <v>118.3043646206254</v>
+        <v>85.93761005299436</v>
       </c>
       <c r="H42" t="n">
         <v>82.05570981277423</v>
@@ -25757,10 +25757,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>123.2751796797921</v>
+        <v>90.9084251121611</v>
       </c>
       <c r="T42" t="n">
-        <v>140.6107635766677</v>
+        <v>172.9775181442987</v>
       </c>
       <c r="U42" t="n">
         <v>207.9260082612874</v>
@@ -25772,10 +25772,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>158.9053694503191</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>145.1543201876168</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>150.9891839367572</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>139.9944293315013</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>69.37940471577508</v>
+        <v>101.7461592834061</v>
       </c>
       <c r="S43" t="n">
         <v>192.6812454004474</v>
@@ -25845,13 +25845,13 @@
         <v>282.5590308277518</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>230.952797159753</v>
       </c>
       <c r="W43" t="n">
-        <v>251.9884606249647</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>199.3727644272157</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25876,16 +25876,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>380.358739517691</v>
       </c>
       <c r="G44" t="n">
-        <v>407.8354119480459</v>
+        <v>375.6273524319637</v>
       </c>
       <c r="H44" t="n">
-        <v>308.5965933537339</v>
+        <v>310.221829050409</v>
       </c>
       <c r="I44" t="n">
-        <v>90.85590430800322</v>
+        <v>96.97399528284214</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>137.6010409571238</v>
+        <v>108.8505498766633</v>
       </c>
       <c r="T44" t="n">
-        <v>155.7991325496033</v>
+        <v>188.2173997525057</v>
       </c>
       <c r="U44" t="n">
-        <v>192.8673279511243</v>
+        <v>253.1122405931648</v>
       </c>
       <c r="V44" t="n">
-        <v>278.4535241656002</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>314.2365079143985</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>90.04615405863514</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>88.91547109759212</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
         <v>128.7880777047345</v>
@@ -25958,13 +25958,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.2194552824311</v>
+        <v>85.93761005299436</v>
       </c>
       <c r="H45" t="n">
-        <v>81.23566436231874</v>
+        <v>82.05570981277423</v>
       </c>
       <c r="I45" t="n">
-        <v>26.86640310864001</v>
+        <v>29.78981672629463</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>121.6980259637708</v>
+        <v>123.2751796797921</v>
       </c>
       <c r="T45" t="n">
-        <v>112.4030568879586</v>
+        <v>172.9775181442987</v>
       </c>
       <c r="U45" t="n">
-        <v>154.8678853536198</v>
+        <v>175.5592536936564</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>191.8059641894742</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>195.449318840415</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>154.8473010812189</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>136.1363121870396</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>121.7100273988794</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>123.3859208715257</v>
       </c>
       <c r="G46" t="n">
-        <v>105.8029392860645</v>
+        <v>166.1063414608336</v>
       </c>
       <c r="H46" t="n">
-        <v>149.155063866836</v>
+        <v>149.7879644472162</v>
       </c>
       <c r="I46" t="n">
-        <v>115.6337621977075</v>
+        <v>117.7744934041466</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>98.54541667547149</v>
+        <v>101.7461592834061</v>
       </c>
       <c r="S46" t="n">
-        <v>191.4406826063894</v>
+        <v>192.6812454004474</v>
       </c>
       <c r="T46" t="n">
-        <v>231.0701539711129</v>
+        <v>231.3743086467557</v>
       </c>
       <c r="U46" t="n">
-        <v>222.3229309641887</v>
+        <v>282.5590308277518</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>220.2648810102176</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>178.6869822278498</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>290572.0024124393</v>
+        <v>267866.059256179</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>52008.49930460696</v>
       </c>
       <c r="C2" t="n">
-        <v>52251.26251446096</v>
+        <v>52251.26251446098</v>
       </c>
       <c r="D2" t="n">
-        <v>52410.71399015421</v>
+        <v>52410.71399015423</v>
       </c>
       <c r="E2" t="n">
         <v>52798.60345716862</v>
@@ -26328,34 +26328,34 @@
         <v>52798.60345716862</v>
       </c>
       <c r="G2" t="n">
-        <v>52798.60345716863</v>
+        <v>52798.60345716862</v>
       </c>
       <c r="H2" t="n">
         <v>52798.60345716862</v>
       </c>
       <c r="I2" t="n">
-        <v>59310.65963000502</v>
+        <v>59310.65963000506</v>
       </c>
       <c r="J2" t="n">
-        <v>59310.65963000499</v>
+        <v>59310.65963000505</v>
       </c>
       <c r="K2" t="n">
-        <v>59310.65963000502</v>
+        <v>59310.65963000505</v>
       </c>
       <c r="L2" t="n">
-        <v>59310.65963000503</v>
+        <v>59310.65963000505</v>
       </c>
       <c r="M2" t="n">
-        <v>59310.659630005</v>
+        <v>59310.65963000506</v>
       </c>
       <c r="N2" t="n">
-        <v>59310.65963000503</v>
+        <v>59310.65963000505</v>
       </c>
       <c r="O2" t="n">
-        <v>59310.65963000504</v>
+        <v>59310.65963000505</v>
       </c>
       <c r="P2" t="n">
-        <v>64896.709921932</v>
+        <v>59310.65963000506</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>32860.54571134159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18365.98529331507</v>
+        <v>18365.98529331508</v>
       </c>
       <c r="C4" t="n">
         <v>15840.3630917628</v>
@@ -26432,7 +26432,7 @@
         <v>10052.67111758623</v>
       </c>
       <c r="G4" t="n">
-        <v>10052.67111758623</v>
+        <v>10052.67111758624</v>
       </c>
       <c r="H4" t="n">
         <v>10052.67111758623</v>
@@ -26441,25 +26441,25 @@
         <v>7839.695451036215</v>
       </c>
       <c r="J4" t="n">
+        <v>7839.695451036216</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7839.695451036216</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7839.695451036215</v>
+      </c>
+      <c r="M4" t="n">
         <v>7839.695451036214</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>7839.695451036214</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7839.695451036214</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7839.695451036215</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7839.695451036215</v>
       </c>
       <c r="O4" t="n">
         <v>7839.695451036215</v>
       </c>
       <c r="P4" t="n">
-        <v>6077.120136079788</v>
+        <v>7839.695451036215</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>7591.404073813406</v>
       </c>
       <c r="P5" t="n">
-        <v>10146.18778279356</v>
+        <v>7591.404073813406</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-150366.0321001108</v>
+        <v>-151769.2885017782</v>
       </c>
       <c r="C6" t="n">
-        <v>-16311.0392813026</v>
+        <v>-17712.42827366338</v>
       </c>
       <c r="D6" t="n">
-        <v>-9272.496580891086</v>
+        <v>-10672.65902343884</v>
       </c>
       <c r="E6" t="n">
-        <v>13222.10908591621</v>
+        <v>11824.93040849932</v>
       </c>
       <c r="F6" t="n">
-        <v>38122.00305180993</v>
+        <v>36724.82437439304</v>
       </c>
       <c r="G6" t="n">
-        <v>38122.00305180994</v>
+        <v>36724.82437439304</v>
       </c>
       <c r="H6" t="n">
-        <v>38122.00305180993</v>
+        <v>36724.82437439304</v>
       </c>
       <c r="I6" t="n">
-        <v>757.4266037519737</v>
+        <v>-589.6593338738194</v>
       </c>
       <c r="J6" t="n">
-        <v>43879.56010515537</v>
+        <v>42532.47416752959</v>
       </c>
       <c r="K6" t="n">
-        <v>43879.5601051554</v>
+        <v>42532.47416752959</v>
       </c>
       <c r="L6" t="n">
-        <v>43879.56010515541</v>
+        <v>42532.4741675296</v>
       </c>
       <c r="M6" t="n">
-        <v>43879.56010515538</v>
+        <v>42532.4741675296</v>
       </c>
       <c r="N6" t="n">
-        <v>43879.56010515541</v>
+        <v>42532.4741675296</v>
       </c>
       <c r="O6" t="n">
-        <v>43879.56010515542</v>
+        <v>42532.4741675296</v>
       </c>
       <c r="P6" t="n">
-        <v>15812.85629171707</v>
+        <v>42532.4741675296</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>257.9589631239192</v>
       </c>
       <c r="P3" t="n">
-        <v>297.4343571967078</v>
+        <v>257.9589631239192</v>
       </c>
     </row>
     <row r="4">
@@ -26831,7 +26831,7 @@
         <v>32.36675456763103</v>
       </c>
       <c r="P4" t="n">
-        <v>60.23221703791658</v>
+        <v>32.36675456763103</v>
       </c>
     </row>
   </sheetData>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.47539407278856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.86546247028555</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,22 +31041,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6134955770126478</v>
+        <v>0.6134955770126477</v>
       </c>
       <c r="H2" t="n">
-        <v>6.282961578080781</v>
+        <v>6.28296157808078</v>
       </c>
       <c r="I2" t="n">
-        <v>23.65178823278013</v>
+        <v>23.65178823278012</v>
       </c>
       <c r="J2" t="n">
-        <v>52.06967022947726</v>
+        <v>52.06967022947725</v>
       </c>
       <c r="K2" t="n">
         <v>78.03893800442265</v>
       </c>
       <c r="L2" t="n">
-        <v>96.8142032694235</v>
+        <v>96.81420326942349</v>
       </c>
       <c r="M2" t="n">
         <v>107.7244552371222</v>
@@ -31068,7 +31068,7 @@
         <v>103.3671029013898</v>
       </c>
       <c r="P2" t="n">
-        <v>88.22143084389009</v>
+        <v>88.22143084389008</v>
       </c>
       <c r="Q2" t="n">
         <v>66.25062049212461</v>
@@ -31132,13 +31132,13 @@
         <v>31.01233887572479</v>
       </c>
       <c r="K3" t="n">
-        <v>53.00502671127429</v>
+        <v>53.00502671127428</v>
       </c>
       <c r="L3" t="n">
         <v>71.27179963988466</v>
       </c>
       <c r="M3" t="n">
-        <v>83.17082850613345</v>
+        <v>83.17082850613343</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
@@ -31156,7 +31156,7 @@
         <v>20.38023625294834</v>
       </c>
       <c r="S3" t="n">
-        <v>6.097082546710663</v>
+        <v>6.097082546710661</v>
       </c>
       <c r="T3" t="n">
         <v>1.323074111080779</v>
@@ -31214,7 +31214,7 @@
         <v>31.97242256905956</v>
       </c>
       <c r="L4" t="n">
-        <v>40.91369316857593</v>
+        <v>40.91369316857592</v>
       </c>
       <c r="M4" t="n">
         <v>43.13775292318419</v>
@@ -31223,10 +31223,10 @@
         <v>42.11203357628952</v>
       </c>
       <c r="O4" t="n">
-        <v>38.89727903785121</v>
+        <v>38.8972790378512</v>
       </c>
       <c r="P4" t="n">
-        <v>33.2833419294811</v>
+        <v>33.28334192948109</v>
       </c>
       <c r="Q4" t="n">
         <v>23.04366074206633</v>
@@ -31235,7 +31235,7 @@
         <v>12.3736777798567</v>
       </c>
       <c r="S4" t="n">
-        <v>4.795863385358934</v>
+        <v>4.795863385358933</v>
       </c>
       <c r="T4" t="n">
         <v>1.175824617171987</v>
@@ -32019,7 +32019,7 @@
         <v>122.618009587993</v>
       </c>
       <c r="Q14" t="n">
-        <v>92.08101864827587</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R14" t="n">
         <v>53.56284138546617</v>
@@ -32071,7 +32071,7 @@
         <v>0.4562298241354165</v>
       </c>
       <c r="H15" t="n">
-        <v>4.406219617307839</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I15" t="n">
         <v>15.70791280466237</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3824877588020532</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H16" t="n">
         <v>3.400663891894621</v>
@@ -32168,13 +32168,13 @@
         <v>59.95669477294365</v>
       </c>
       <c r="N16" t="n">
-        <v>58.53105858104514</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O16" t="n">
-        <v>54.06290612594841</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P16" t="n">
-        <v>46.26015584638648</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q16" t="n">
         <v>32.02813405750647</v>
@@ -32256,7 +32256,7 @@
         <v>122.618009587993</v>
       </c>
       <c r="Q17" t="n">
-        <v>92.08101864827587</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R17" t="n">
         <v>53.56284138546617</v>
@@ -32308,7 +32308,7 @@
         <v>0.4562298241354165</v>
       </c>
       <c r="H18" t="n">
-        <v>4.406219617307839</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I18" t="n">
         <v>15.70791280466237</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3824877588020532</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H19" t="n">
         <v>3.400663891894621</v>
@@ -32405,13 +32405,13 @@
         <v>59.95669477294365</v>
       </c>
       <c r="N19" t="n">
-        <v>58.53105858104514</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O19" t="n">
-        <v>54.06290612594841</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P19" t="n">
-        <v>46.26015584638648</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q19" t="n">
         <v>32.02813405750647</v>
@@ -32797,13 +32797,13 @@
         <v>120.4741365042417</v>
       </c>
       <c r="M24" t="n">
-        <v>106.5294649568028</v>
+        <v>124.7538766169429</v>
       </c>
       <c r="N24" t="n">
         <v>117.7388674217977</v>
       </c>
       <c r="O24" t="n">
-        <v>125.0543134565199</v>
+        <v>106.8299017963798</v>
       </c>
       <c r="P24" t="n">
         <v>105.9529937404641</v>
@@ -33037,10 +33037,10 @@
         <v>124.7538766169429</v>
       </c>
       <c r="N27" t="n">
-        <v>117.7388674217977</v>
+        <v>99.51445576165754</v>
       </c>
       <c r="O27" t="n">
-        <v>106.8299017963798</v>
+        <v>125.0543134565199</v>
       </c>
       <c r="P27" t="n">
         <v>105.9529937404641</v>
@@ -33271,7 +33271,7 @@
         <v>120.4741365042417</v>
       </c>
       <c r="M30" t="n">
-        <v>106.5294649568028</v>
+        <v>124.7538766169429</v>
       </c>
       <c r="N30" t="n">
         <v>117.7388674217977</v>
@@ -33280,7 +33280,7 @@
         <v>125.0543134565199</v>
       </c>
       <c r="P30" t="n">
-        <v>105.9529937404641</v>
+        <v>87.72858208032397</v>
       </c>
       <c r="Q30" t="n">
         <v>70.8267704033825</v>
@@ -33505,10 +33505,10 @@
         <v>89.59693533333333</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2497248441016</v>
+        <v>120.4741365042417</v>
       </c>
       <c r="M33" t="n">
-        <v>124.7538766169429</v>
+        <v>106.5294649568028</v>
       </c>
       <c r="N33" t="n">
         <v>117.7388674217977</v>
@@ -33739,7 +33739,7 @@
         <v>52.42164174200325</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>89.59693533333333</v>
       </c>
       <c r="L36" t="n">
         <v>120.4741365042417</v>
@@ -33748,10 +33748,10 @@
         <v>124.7538766169429</v>
       </c>
       <c r="N36" t="n">
-        <v>99.51445576165754</v>
+        <v>117.7388674217977</v>
       </c>
       <c r="O36" t="n">
-        <v>125.0543134565199</v>
+        <v>106.8299017963798</v>
       </c>
       <c r="P36" t="n">
         <v>105.9529937404641</v>
@@ -34213,16 +34213,16 @@
         <v>52.42164174200325</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333333</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>120.4741365042417</v>
       </c>
       <c r="M42" t="n">
-        <v>124.7538766169429</v>
+        <v>106.5294649568028</v>
       </c>
       <c r="N42" t="n">
-        <v>99.51445576165754</v>
+        <v>117.7388674217977</v>
       </c>
       <c r="O42" t="n">
         <v>125.0543134565199</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.195716008830985</v>
+        <v>1.037020957282087</v>
       </c>
       <c r="H44" t="n">
-        <v>12.24562657544033</v>
+        <v>10.62039087876517</v>
       </c>
       <c r="I44" t="n">
-        <v>46.0978414304566</v>
+        <v>39.97975045561768</v>
       </c>
       <c r="J44" t="n">
-        <v>101.4849016045189</v>
+        <v>88.01585747312056</v>
       </c>
       <c r="K44" t="n">
-        <v>152.0995602583345</v>
+        <v>131.9129545948713</v>
       </c>
       <c r="L44" t="n">
-        <v>188.6929540635958</v>
+        <v>163.649684716293</v>
       </c>
       <c r="M44" t="n">
-        <v>209.9572686356439</v>
+        <v>182.0918061653583</v>
       </c>
       <c r="N44" t="n">
-        <v>209.3507083757007</v>
+        <v>181.4852459054151</v>
       </c>
       <c r="O44" t="n">
-        <v>201.4646956829218</v>
+        <v>174.7263648162623</v>
       </c>
       <c r="P44" t="n">
-        <v>171.9454567149068</v>
+        <v>149.1249099333608</v>
       </c>
       <c r="Q44" t="n">
-        <v>129.1238771486471</v>
+        <v>111.986596900696</v>
       </c>
       <c r="R44" t="n">
-        <v>75.11039573972943</v>
+        <v>65.14176770787093</v>
       </c>
       <c r="S44" t="n">
-        <v>27.2473785512361</v>
+        <v>23.63111506406557</v>
       </c>
       <c r="T44" t="n">
-        <v>5.23424682865764</v>
+        <v>4.539559240502336</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09565728070647879</v>
+        <v>0.0829616765825669</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6397644664231072</v>
+        <v>0.5548551282288073</v>
       </c>
       <c r="H45" t="n">
-        <v>6.178777873086327</v>
+        <v>5.358732422630851</v>
       </c>
       <c r="I45" t="n">
-        <v>22.02697833956751</v>
+        <v>19.10356472191289</v>
       </c>
       <c r="J45" t="n">
-        <v>60.44371215447437</v>
+        <v>52.42164174200325</v>
       </c>
       <c r="K45" t="n">
-        <v>103.3079314048226</v>
+        <v>89.59693533333333</v>
       </c>
       <c r="L45" t="n">
-        <v>138.9102627643681</v>
+        <v>120.4741365042417</v>
       </c>
       <c r="M45" t="n">
-        <v>152.6193390872285</v>
+        <v>106.5294649568028</v>
       </c>
       <c r="N45" t="n">
-        <v>106.461956252393</v>
+        <v>117.7388674217977</v>
       </c>
       <c r="O45" t="n">
-        <v>152.216241272168</v>
+        <v>125.0543134565199</v>
       </c>
       <c r="P45" t="n">
-        <v>122.1669532417949</v>
+        <v>105.9529937404641</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.66537294200928</v>
+        <v>70.8267704033825</v>
       </c>
       <c r="R45" t="n">
-        <v>39.72151660826978</v>
+        <v>34.44968945266228</v>
       </c>
       <c r="S45" t="n">
-        <v>11.88334436535902</v>
+        <v>10.30619064933771</v>
       </c>
       <c r="T45" t="n">
-        <v>2.578699757205418</v>
+        <v>2.236455538781903</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04208976752783603</v>
+        <v>0.03650362685715839</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5363570375678336</v>
+        <v>0.4651719007152641</v>
       </c>
       <c r="H46" t="n">
-        <v>4.768701661284924</v>
+        <v>4.135801080904805</v>
       </c>
       <c r="I46" t="n">
-        <v>16.1297189115854</v>
+        <v>13.98898770514631</v>
       </c>
       <c r="J46" t="n">
-        <v>37.92044255604583</v>
+        <v>32.88765338056917</v>
       </c>
       <c r="K46" t="n">
-        <v>62.31493581924465</v>
+        <v>54.04451719219158</v>
       </c>
       <c r="L46" t="n">
-        <v>79.74166356713047</v>
+        <v>69.15837512997663</v>
       </c>
       <c r="M46" t="n">
-        <v>84.07640362529231</v>
+        <v>72.91780985484816</v>
       </c>
       <c r="N46" t="n">
-        <v>82.077254667085</v>
+        <v>71.1839873158186</v>
       </c>
       <c r="O46" t="n">
-        <v>75.81162927367892</v>
+        <v>65.74993374837209</v>
       </c>
       <c r="P46" t="n">
-        <v>64.86994570729505</v>
+        <v>56.26042697378065</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.91258793670287</v>
+        <v>38.9518034317118</v>
       </c>
       <c r="R46" t="n">
-        <v>24.11656279827731</v>
+        <v>20.91582019034269</v>
       </c>
       <c r="S46" t="n">
-        <v>9.347240372886697</v>
+        <v>8.106677578828736</v>
       </c>
       <c r="T46" t="n">
-        <v>2.291707342335288</v>
+        <v>1.987552666692491</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02925583841279096</v>
+        <v>0.02537301276628716</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3329359674590117</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.3329359674590175</v>
       </c>
       <c r="R23" t="n">
         <v>27.52878313053765</v>
@@ -36445,13 +36445,13 @@
         <v>30.41378964732348</v>
       </c>
       <c r="M24" t="n">
-        <v>14.14234290749089</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="N24" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="O24" t="n">
-        <v>32.36675456763103</v>
+        <v>14.1423429074909</v>
       </c>
       <c r="P24" t="n">
         <v>18.86962892114946</v>
@@ -36521,19 +36521,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.05900690833279</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="N25" t="n">
-        <v>32.36675456763103</v>
+        <v>31.0590069083328</v>
       </c>
       <c r="O25" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="P25" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.3329359674590117</v>
       </c>
       <c r="L26" t="n">
-        <v>10.73445095326031</v>
+        <v>10.4015149858013</v>
       </c>
       <c r="M26" t="n">
         <v>32.36675456763103</v>
@@ -36685,10 +36685,10 @@
         <v>32.36675456763103</v>
       </c>
       <c r="N27" t="n">
+        <v>14.14234290749089</v>
+      </c>
+      <c r="O27" t="n">
         <v>32.36675456763103</v>
-      </c>
-      <c r="O27" t="n">
-        <v>14.1423429074909</v>
       </c>
       <c r="P27" t="n">
         <v>18.86962892114946</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.813165908410099</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="M28" t="n">
-        <v>28.24584099992269</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="N28" t="n">
-        <v>32.36675456763103</v>
+        <v>31.0590069083328</v>
       </c>
       <c r="O28" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>30.41378964732348</v>
       </c>
       <c r="M30" t="n">
-        <v>14.14234290749089</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="N30" t="n">
         <v>32.36675456763103</v>
@@ -36928,7 +36928,7 @@
         <v>32.36675456763103</v>
       </c>
       <c r="P30" t="n">
-        <v>18.86962892114946</v>
+        <v>0.6452172610093183</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.813165908410099</v>
       </c>
       <c r="K31" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="L31" t="n">
-        <v>32.36675456763103</v>
+        <v>28.24584099992269</v>
       </c>
       <c r="M31" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>31.0590069083328</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>10.4015149858013</v>
+        <v>31.05900690833279</v>
       </c>
       <c r="M32" t="n">
         <v>32.36675456763103</v>
@@ -37083,13 +37083,13 @@
         <v>32.36675456763103</v>
       </c>
       <c r="O32" t="n">
-        <v>25.16252739216588</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>27.86171909799667</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>12.18937798718334</v>
+        <v>30.41378964732348</v>
       </c>
       <c r="M33" t="n">
-        <v>32.36675456763103</v>
+        <v>14.14234290749089</v>
       </c>
       <c r="N33" t="n">
         <v>32.36675456763103</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.813165908410099</v>
       </c>
       <c r="K34" t="n">
-        <v>31.05900690833279</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="L34" t="n">
         <v>32.36675456763103</v>
@@ -37238,7 +37238,7 @@
         <v>32.36675456763103</v>
       </c>
       <c r="N34" t="n">
-        <v>32.36675456763103</v>
+        <v>28.2458409999227</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3329359674590117</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>10.4015149858013</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="M35" t="n">
         <v>32.36675456763103</v>
@@ -37320,7 +37320,7 @@
         <v>32.36675456763103</v>
       </c>
       <c r="O35" t="n">
-        <v>25.16252739216588</v>
+        <v>31.0590069083328</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>27.52878313053765</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>32.36675456763103</v>
       </c>
       <c r="N36" t="n">
-        <v>14.14234290749089</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="O36" t="n">
-        <v>32.36675456763103</v>
+        <v>14.1423429074909</v>
       </c>
       <c r="P36" t="n">
         <v>18.86962892114946</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.813165908410099</v>
       </c>
       <c r="K37" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="L37" t="n">
-        <v>31.05900690833279</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>28.2458409999227</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>27.86171909799666</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>10.4015149858013</v>
+        <v>31.05900690833279</v>
       </c>
       <c r="M38" t="n">
         <v>32.36675456763103</v>
@@ -37557,7 +37557,7 @@
         <v>32.36675456763103</v>
       </c>
       <c r="O38" t="n">
-        <v>25.16252739216588</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>32.36675456763103</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.36675456763103</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3329359674590117</v>
+        <v>27.86171909799666</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>27.52878313053765</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>30.41378964732348</v>
       </c>
       <c r="M42" t="n">
+        <v>14.14234290749089</v>
+      </c>
+      <c r="N42" t="n">
         <v>32.36675456763103</v>
-      </c>
-      <c r="N42" t="n">
-        <v>14.14234290749089</v>
       </c>
       <c r="O42" t="n">
         <v>32.36675456763103</v>
@@ -37943,19 +37943,19 @@
         <v>32.36675456763103</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>32.36675456763103</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>31.0590069083328</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>31.0590069083328</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>32.36675456763103</v>
@@ -38019,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>9.041157079097189</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>35.44478433310414</v>
+        <v>10.4015149858013</v>
       </c>
       <c r="M44" t="n">
-        <v>60.23221703791658</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="N44" t="n">
-        <v>60.23221703791658</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="O44" t="n">
-        <v>51.90085825882539</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="P44" t="n">
-        <v>21.64400947398161</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>27.86171909799667</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>13.71099607148921</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>48.84991590744987</v>
+        <v>30.41378964732348</v>
       </c>
       <c r="M45" t="n">
-        <v>60.23221703791658</v>
+        <v>14.14234290749089</v>
       </c>
       <c r="N45" t="n">
-        <v>21.08984339822636</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="O45" t="n">
-        <v>59.5286823832791</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="P45" t="n">
-        <v>35.08358842248029</v>
+        <v>18.86962892114946</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>7.845955083886764</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>60.23221703791658</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.583285076349562</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>31.05900690833279</v>
       </c>
       <c r="N46" t="n">
-        <v>60.23221703791658</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="P46" t="n">
-        <v>60.23221703791658</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.36935194685535</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
